--- a/Protocol_TX_To_RX.xlsx
+++ b/Protocol_TX_To_RX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57468\OneDrive_Personal\OneDrive\DYI Remote Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57468\OneDrive_Personal\OneDrive\GitHub\DYI Remote Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,12 +80,6 @@
     <t>Byte 0</t>
   </si>
   <si>
-    <t>ID = Hvilken type pakke det er</t>
-  </si>
-  <si>
-    <t>Data 0-8 = Den data/talværdi der skal sendes</t>
-  </si>
-  <si>
     <t>2 Stk. 2-Axis gyro</t>
   </si>
   <si>
@@ -119,18 +113,9 @@
     <t>Byte n = 00h-FFh = 0000 0000b - 1111 1111b = 0-255d</t>
   </si>
   <si>
-    <t>Div switche</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
-    <t>En halv byte til hver 2vejs og en hel til 3 vejs</t>
-  </si>
-  <si>
-    <t>Div potmetere</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
@@ -149,39 +134,6 @@
     <t>Pot 3</t>
   </si>
   <si>
-    <t>Div Protokol til RC TX til RX</t>
-  </si>
-  <si>
-    <t>Ligner den til gyro</t>
-  </si>
-  <si>
-    <t>Div knapper</t>
-  </si>
-  <si>
-    <t>K 0-7</t>
-  </si>
-  <si>
-    <t>K 8-15</t>
-  </si>
-  <si>
-    <t>k n-n = knap n-n</t>
-  </si>
-  <si>
-    <t>2-vejs 0-4 = on-on</t>
-  </si>
-  <si>
-    <t>2-vejs 5-8 = (on)-off-(on)</t>
-  </si>
-  <si>
-    <t>3-vejs 0-1</t>
-  </si>
-  <si>
-    <t>3-vejs 2-3</t>
-  </si>
-  <si>
-    <t>3-vejs = on-off-on</t>
-  </si>
-  <si>
     <t>NIU</t>
   </si>
   <si>
@@ -197,9 +149,6 @@
     <t>Ready?</t>
   </si>
   <si>
-    <t>Ready = spørg om modtageren er klar</t>
-  </si>
-  <si>
     <t>Braud rate</t>
   </si>
   <si>
@@ -212,9 +161,6 @@
     <t>RF-Mode</t>
   </si>
   <si>
-    <t>Byte 1-4 = remote setup af HC-12 via RX micro</t>
-  </si>
-  <si>
     <t>Rx Ready?</t>
   </si>
   <si>
@@ -236,21 +182,12 @@
     <t>00-03</t>
   </si>
   <si>
-    <t>Ved setup er 00 = don't care / bliv hvor du er</t>
-  </si>
-  <si>
-    <t>Telemetri</t>
-  </si>
-  <si>
     <t>FD</t>
   </si>
   <si>
     <t>T-HC-12</t>
   </si>
   <si>
-    <t>T-HC-12 = hvad er modulet pt sat til</t>
-  </si>
-  <si>
     <t>00 = Ignore</t>
   </si>
   <si>
@@ -266,22 +203,85 @@
     <t>T-S3</t>
   </si>
   <si>
-    <t>T-S0-3 = Anmod om telemetri pakke 0-3</t>
-  </si>
-  <si>
-    <t>hver axis = 0000h-FFFFh = 0-1023d (0-65535d)</t>
-  </si>
-  <si>
-    <t>2-vejs 0-1</t>
-  </si>
-  <si>
-    <t>2-vejs 2-3</t>
-  </si>
-  <si>
-    <t>2-vejs 4-5</t>
-  </si>
-  <si>
-    <t>2-vejs 6-7</t>
+    <t>Div Protocol for RC TX to RX</t>
+  </si>
+  <si>
+    <t>ID = what packet type it is</t>
+  </si>
+  <si>
+    <t>Data 0-7 = the induvidual data that is being send</t>
+  </si>
+  <si>
+    <t>At setup 00 = don't care / stay where you are</t>
+  </si>
+  <si>
+    <t>Byte 1-4 = remote setup of HC-12 via RX micro</t>
+  </si>
+  <si>
+    <t>Ready = is the reciver ready / Booted?</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
+  </si>
+  <si>
+    <t>T-S0-3 = ask for telemetry packet 0-3</t>
+  </si>
+  <si>
+    <t>T-HC-12 = ask what the module is curently set to</t>
+  </si>
+  <si>
+    <t>each axis = 0000h-FFFFh = 0-1023d (0-65535d)</t>
+  </si>
+  <si>
+    <t>Div switch</t>
+  </si>
+  <si>
+    <t>3-way 0-1</t>
+  </si>
+  <si>
+    <t>3-way 2-3</t>
+  </si>
+  <si>
+    <t>2-way 0-1</t>
+  </si>
+  <si>
+    <t>2-way 2-3</t>
+  </si>
+  <si>
+    <t>2-way 4-5</t>
+  </si>
+  <si>
+    <t>2-way 6-7</t>
+  </si>
+  <si>
+    <t>3-way = on-off-on</t>
+  </si>
+  <si>
+    <t>2-way 0-4 = on-on</t>
+  </si>
+  <si>
+    <t>2-way 5-8 = (on)-off-(on)</t>
+  </si>
+  <si>
+    <t>half a byte / 4 bits per switch</t>
+  </si>
+  <si>
+    <t>Div potentiometer</t>
+  </si>
+  <si>
+    <t>same layout as for the gyros</t>
+  </si>
+  <si>
+    <t>Div buttons</t>
+  </si>
+  <si>
+    <t>B 0-7</t>
+  </si>
+  <si>
+    <t>B 8-15</t>
+  </si>
+  <si>
+    <t>B n-n = Button n-n</t>
   </si>
 </sst>
 </file>
@@ -681,29 +681,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -711,14 +699,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,22 +1080,22 @@
   <sheetData>
     <row r="1" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1168,55 +1168,55 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="B9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="B10" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="B11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="32"/>
+      <c r="B15" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1253,57 +1253,57 @@
         <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1318,28 +1318,28 @@
       <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="B21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="B22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
@@ -1366,10 +1366,10 @@
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="38"/>
+      <c r="B25" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="37"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -1423,57 +1423,57 @@
         <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,23 +1488,23 @@
       <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="B31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="39"/>
+      <c r="B34" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="38"/>
     </row>
     <row r="35" spans="2:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
@@ -1544,57 +1544,57 @@
         <v>8</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1609,48 +1609,48 @@
       <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="B40" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="B41" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="B42" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="32"/>
+      <c r="B45" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="29"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -1686,72 +1686,72 @@
       <c r="B48" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="27" t="s">
+      <c r="H48" s="31"/>
+      <c r="I48" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="35"/>
-      <c r="I48" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="28"/>
+      <c r="J48" s="33"/>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="31"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="35"/>
+      <c r="I49" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="36"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="B51" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
+      <c r="B52" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="32"/>
+      <c r="B55" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="29"/>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -1788,109 +1788,109 @@
         <v>8</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
+      <c r="B61" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="B62" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
+      <c r="B63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="B64" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
     </row>
     <row r="65" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="32"/>
+      <c r="B67" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="29"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -1926,61 +1926,61 @@
       <c r="B70" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J70" s="28"/>
+      <c r="C70" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="31"/>
+      <c r="I70" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" s="33"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="30"/>
-      <c r="G71" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H71" s="30"/>
-      <c r="I71" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="35"/>
+      <c r="G71" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="35"/>
+      <c r="I71" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="36"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
+      <c r="B73" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
     </row>
     <row r="74" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="32"/>
+      <c r="B76" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="29"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -2017,73 +2017,100 @@
         <v>8</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
+      <c r="B82" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
     </row>
     <row r="83" spans="2:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B73:H73"/>
     <mergeCell ref="B76:C76"/>
@@ -2100,32 +2127,6 @@
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B41:H41"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Protocol_TX_To_RX.xlsx
+++ b/Protocol_TX_To_RX.xlsx
@@ -140,9 +140,6 @@
     <t>NIU = Not In Use</t>
   </si>
   <si>
-    <t>FF</t>
-  </si>
-  <si>
     <t>Setup Conection</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>B n-n = Button n-n</t>
+  </si>
+  <si>
+    <t>FC</t>
   </si>
 </sst>
 </file>
@@ -681,44 +681,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,22 +1080,22 @@
   <sheetData>
     <row r="1" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1168,55 +1168,55 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="29"/>
+      <c r="B15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1253,19 +1253,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="F18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>44</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>36</v>
@@ -1279,22 +1279,22 @@
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="G19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>21</v>
@@ -1318,28 +1318,28 @@
       <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="B21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="B22" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
@@ -1366,10 +1366,10 @@
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="37"/>
+      <c r="B25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="38"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>36</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="29" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>21</v>
@@ -1488,23 +1488,23 @@
       <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="B31" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="38"/>
+      <c r="B34" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="2:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
@@ -1544,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="G37" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>36</v>
@@ -1570,22 +1570,22 @@
     </row>
     <row r="38" spans="2:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>21</v>
@@ -1609,48 +1609,48 @@
       <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="B40" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="B41" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="B42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="33"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -1686,72 +1686,72 @@
       <c r="B48" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="30" t="s">
+      <c r="D48" s="36"/>
+      <c r="E48" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="30" t="s">
+      <c r="F48" s="36"/>
+      <c r="G48" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="30" t="s">
+      <c r="H48" s="36"/>
+      <c r="I48" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J48" s="33"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="34" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="34" t="s">
+      <c r="F49" s="31"/>
+      <c r="G49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="35"/>
-      <c r="I49" s="34" t="s">
+      <c r="H49" s="31"/>
+      <c r="I49" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="36"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
+      <c r="B52" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="29"/>
+      <c r="B55" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -1788,10 +1788,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>36</v>
@@ -1800,16 +1800,16 @@
         <v>36</v>
       </c>
       <c r="G58" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="I58" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="J58" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1842,55 +1842,55 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
+      <c r="B61" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="28" t="s">
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="29"/>
+      <c r="B67" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="33"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -1926,61 +1926,61 @@
       <c r="B70" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="30" t="s">
+      <c r="D70" s="36"/>
+      <c r="E70" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="30" t="s">
+      <c r="F70" s="36"/>
+      <c r="G70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="31"/>
-      <c r="I70" s="30" t="s">
+      <c r="H70" s="36"/>
+      <c r="I70" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J70" s="33"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="34" t="s">
+      <c r="D71" s="31"/>
+      <c r="E71" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="34" t="s">
+      <c r="F71" s="31"/>
+      <c r="G71" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="35"/>
-      <c r="I71" s="34" t="s">
+      <c r="H71" s="31"/>
+      <c r="I71" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J71" s="36"/>
+      <c r="J71" s="32"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
+      <c r="B73" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="29"/>
+      <c r="B76" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="33"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -2017,10 +2017,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>36</v>
@@ -2071,19 +2071,46 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
+      <c r="B82" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="2:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B40:H40"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="C49:D49"/>
@@ -2100,33 +2127,6 @@
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
